--- a/ANALISIS CAMPOS INDIVIDUALES/ALIENVAULT_OTX.xlsx
+++ b/ANALISIS CAMPOS INDIVIDUALES/ALIENVAULT_OTX.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U355032\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Python 3.9\TFM\ALIENVAULT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8EEA14-FAEE-473F-A303-8ECF76675E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E93898-7C43-468E-AFC1-3FEB4752C7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="4" xr2:uid="{1177A092-0498-4BC7-A76A-EF86C90DF99A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{1177A092-0498-4BC7-A76A-EF86C90DF99A}"/>
   </bookViews>
   <sheets>
-    <sheet name="AÑO CREACIÓN" sheetId="2" r:id="rId1"/>
-    <sheet name="AÑO MODIFICACIÓN" sheetId="4" r:id="rId2"/>
-    <sheet name="AÑO VALIDEZ" sheetId="5" r:id="rId3"/>
-    <sheet name="TIPO DE OBJETO STIX 2.1 " sheetId="6" r:id="rId4"/>
-    <sheet name="OBJECT_REFS" sheetId="7" r:id="rId5"/>
-    <sheet name="NAME" sheetId="10" r:id="rId6"/>
-    <sheet name="PATTERN" sheetId="9" r:id="rId7"/>
-    <sheet name="NAME SIN VOCABULARIO" sheetId="11" r:id="rId8"/>
+    <sheet name="created" sheetId="2" r:id="rId1"/>
+    <sheet name="modified" sheetId="4" r:id="rId2"/>
+    <sheet name="valid_from" sheetId="5" r:id="rId3"/>
+    <sheet name="type" sheetId="6" r:id="rId4"/>
+    <sheet name="object_refs" sheetId="7" r:id="rId5"/>
+    <sheet name="name" sheetId="10" r:id="rId6"/>
+    <sheet name="pattern" sheetId="9" r:id="rId7"/>
+    <sheet name="name_no_vocabulario" sheetId="11" r:id="rId8"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1559,7 +1559,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AÑO CREACIÓN'!$B$12:$B$16</c:f>
+              <c:f>created!$B$12:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1583,7 +1583,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AÑO CREACIÓN'!$D$12:$D$16</c:f>
+              <c:f>created!$D$12:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1646,7 +1646,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO CREACIÓN'!$B$12:$B$16</c15:sqref>
+                          <c15:sqref>created!$B$12:$B$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1676,7 +1676,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO CREACIÓN'!$C$12:$C$16</c15:sqref>
+                          <c15:sqref>created!$C$12:$C$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2119,11 +2119,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'TIPO DE OBJETO STIX 2.1 '!$B$12:$B$16</c15:sqref>
+                    <c15:sqref>type!$B$12:$B$16</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>('TIPO DE OBJETO STIX 2.1 '!$B$13,'TIPO DE OBJETO STIX 2.1 '!$B$16)</c:f>
+              <c:f>(type!$B$13,type!$B$16)</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2140,11 +2140,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'TIPO DE OBJETO STIX 2.1 '!$C$12:$C$16</c15:sqref>
+                    <c15:sqref>type!$C$12:$C$16</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>('TIPO DE OBJETO STIX 2.1 '!$C$13,'TIPO DE OBJETO STIX 2.1 '!$C$16)</c:f>
+              <c:f>(type!$C$13,type!$C$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2531,11 +2531,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'TIPO DE OBJETO STIX 2.1 '!$G$12:$G$16</c15:sqref>
+                    <c15:sqref>type!$G$12:$G$16</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>('TIPO DE OBJETO STIX 2.1 '!$G$13,'TIPO DE OBJETO STIX 2.1 '!$G$16)</c:f>
+              <c:f>(type!$G$13,type!$G$16)</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2552,11 +2552,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'TIPO DE OBJETO STIX 2.1 '!$H$12:$H$16</c15:sqref>
+                    <c15:sqref>type!$H$12:$H$16</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>('TIPO DE OBJETO STIX 2.1 '!$H$13,'TIPO DE OBJETO STIX 2.1 '!$H$16)</c:f>
+              <c:f>(type!$H$13,type!$H$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2938,11 +2938,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'TIPO DE OBJETO STIX 2.1 '!$B$67:$B$71</c15:sqref>
+                    <c15:sqref>type!$B$67:$B$71</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>('TIPO DE OBJETO STIX 2.1 '!$B$68,'TIPO DE OBJETO STIX 2.1 '!$B$71)</c:f>
+              <c:f>(type!$B$68,type!$B$71)</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2959,11 +2959,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'TIPO DE OBJETO STIX 2.1 '!$C$67:$C$71</c15:sqref>
+                    <c15:sqref>type!$C$67:$C$71</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>('TIPO DE OBJETO STIX 2.1 '!$C$68,'TIPO DE OBJETO STIX 2.1 '!$C$71)</c:f>
+              <c:f>(type!$C$68,type!$C$71)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3320,11 +3320,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>OBJECT_REFS!$B$12:$B$17</c15:sqref>
+                    <c15:sqref>object_refs!$B$12:$B$17</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(OBJECT_REFS!$B$12,OBJECT_REFS!$B$16)</c:f>
+              <c:f>(object_refs!$B$12,object_refs!$B$16)</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3341,11 +3341,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>OBJECT_REFS!$C$12:$C$17</c15:sqref>
+                    <c15:sqref>object_refs!$C$12:$C$17</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(OBJECT_REFS!$C$12,OBJECT_REFS!$C$16)</c:f>
+              <c:f>(object_refs!$C$12,object_refs!$C$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3724,11 +3724,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>OBJECT_REFS!$G$12:$G$17</c15:sqref>
+                    <c15:sqref>object_refs!$G$12:$G$17</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(OBJECT_REFS!$G$12,OBJECT_REFS!$G$16)</c:f>
+              <c:f>(object_refs!$G$12,object_refs!$G$16)</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3745,11 +3745,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>OBJECT_REFS!$H$12:$H$17</c15:sqref>
+                    <c15:sqref>object_refs!$H$12:$H$17</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(OBJECT_REFS!$H$12,OBJECT_REFS!$H$16)</c:f>
+              <c:f>(object_refs!$H$12,object_refs!$H$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4128,11 +4128,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>OBJECT_REFS!$B$67:$B$71</c15:sqref>
+                    <c15:sqref>object_refs!$B$67:$B$71</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(OBJECT_REFS!$B$67,OBJECT_REFS!$B$71)</c:f>
+              <c:f>(object_refs!$B$67,object_refs!$B$71)</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4149,11 +4149,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>OBJECT_REFS!$C$67:$C$71</c15:sqref>
+                    <c15:sqref>object_refs!$C$67:$C$71</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(OBJECT_REFS!$C$67,OBJECT_REFS!$C$71)</c:f>
+              <c:f>(object_refs!$C$67,object_refs!$C$71)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4533,11 +4533,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>NAME!$B$12:$B$31</c15:sqref>
+                    <c15:sqref>name!$B$12:$B$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>NAME!$B$30:$B$31</c:f>
+              <c:f>name!$B$30:$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4554,11 +4554,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>NAME!$C$12:$C$31</c15:sqref>
+                    <c15:sqref>name!$C$12:$C$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>NAME!$C$30:$C$31</c:f>
+              <c:f>name!$C$30:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4575,7 +4575,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:categoryFilterExceptions>
                 <c15:categoryFilterException>
-                  <c15:sqref>NAME!$C$23</c15:sqref>
+                  <c15:sqref>name!$C$23</c15:sqref>
                   <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <a:solidFill>
                       <a:schemeClr val="accent1">
@@ -4866,7 +4866,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>PATTERN!$B$12:$B$16</c:f>
+              <c:f>pattern!$B$12:$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4889,7 +4889,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PATTERN!$D$12:$D$16</c:f>
+              <c:f>pattern!$D$12:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4952,7 +4952,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>PATTERN!$B$12:$B$16</c15:sqref>
+                          <c15:sqref>pattern!$B$12:$B$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4981,7 +4981,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>PATTERN!$C$12:$C$16</c15:sqref>
+                          <c15:sqref>pattern!$C$12:$C$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5362,7 +5362,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>PATTERN!$G$12:$G$16</c:f>
+              <c:f>pattern!$G$12:$G$16</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -5385,7 +5385,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PATTERN!$I$12:$I$16</c:f>
+              <c:f>pattern!$I$12:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5451,7 +5451,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>PATTERN!$G$12:$G$16</c15:sqref>
+                          <c15:sqref>pattern!$G$12:$G$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5480,7 +5480,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>PATTERN!$H$12:$H$16</c15:sqref>
+                          <c15:sqref>pattern!$H$12:$H$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5832,7 +5832,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>PATTERN!$B$67:$B$71</c:f>
+              <c:f>pattern!$B$67:$B$71</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -5855,7 +5855,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PATTERN!$D$67:$D$71</c:f>
+              <c:f>pattern!$D$67:$D$71</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5918,7 +5918,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>PATTERN!$B$67:$B$71</c15:sqref>
+                          <c15:sqref>pattern!$B$67:$B$71</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5947,7 +5947,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>PATTERN!$C$67:$C$71</c15:sqref>
+                          <c15:sqref>pattern!$C$67:$C$71</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6332,11 +6332,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'AÑO CREACIÓN'!$F$12:$F$16</c15:sqref>
+                    <c15:sqref>created!$F$12:$F$16</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'AÑO CREACIÓN'!$F$12:$F$15</c:f>
+              <c:f>created!$F$12:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6360,11 +6360,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'AÑO CREACIÓN'!$H$12:$H$16</c15:sqref>
+                    <c15:sqref>created!$H$12:$H$16</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'AÑO CREACIÓN'!$H$12:$H$15</c:f>
+              <c:f>created!$H$12:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6424,10 +6424,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>'AÑO CREACIÓN'!$F$12:$F$16</c15:sqref>
+                          <c15:sqref>created!$F$12:$F$16</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO CREACIÓN'!$F$12:$F$15</c15:sqref>
+                          <c15:sqref>created!$F$12:$F$15</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6454,10 +6454,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>'AÑO CREACIÓN'!$G$12:$G$16</c15:sqref>
+                          <c15:sqref>created!$G$12:$G$16</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO CREACIÓN'!$G$12:$G$15</c15:sqref>
+                          <c15:sqref>created!$G$12:$G$15</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6920,11 +6920,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'NAME SIN VOCABULARIO'!$B$12:$B$26</c15:sqref>
+                    <c15:sqref>name_no_vocabulario!$B$12:$B$26</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'NAME SIN VOCABULARIO'!$B$25:$B$26</c:f>
+              <c:f>name_no_vocabulario!$B$25:$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -6941,11 +6941,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'NAME SIN VOCABULARIO'!$C$12:$C$26</c15:sqref>
+                    <c15:sqref>name_no_vocabulario!$C$12:$C$26</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'NAME SIN VOCABULARIO'!$C$25:$C$26</c:f>
+              <c:f>name_no_vocabulario!$C$25:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6962,7 +6962,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:categoryFilterExceptions>
                 <c15:categoryFilterException>
-                  <c15:sqref>'NAME SIN VOCABULARIO'!$C$23</c15:sqref>
+                  <c15:sqref>name_no_vocabulario!$C$23</c15:sqref>
                   <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <a:solidFill>
                       <a:schemeClr val="accent1">
@@ -7238,7 +7238,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AÑO CREACIÓN'!$B$67:$B$71</c:f>
+              <c:f>created!$B$67:$B$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7262,7 +7262,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AÑO CREACIÓN'!$D$67:$D$71</c:f>
+              <c:f>created!$D$67:$D$71</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7325,7 +7325,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO CREACIÓN'!$B$67:$B$71</c15:sqref>
+                          <c15:sqref>created!$B$67:$B$71</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7355,7 +7355,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO CREACIÓN'!$C$67:$C$71</c15:sqref>
+                          <c15:sqref>created!$C$67:$C$71</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7711,7 +7711,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AÑO MODIFICACIÓN'!$B$12:$B$16</c:f>
+              <c:f>modified!$B$12:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7735,7 +7735,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AÑO MODIFICACIÓN'!$D$12:$D$16</c:f>
+              <c:f>modified!$D$12:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7798,7 +7798,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO MODIFICACIÓN'!$B$12:$B$16</c15:sqref>
+                          <c15:sqref>modified!$B$12:$B$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7828,7 +7828,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO MODIFICACIÓN'!$C$12:$C$16</c15:sqref>
+                          <c15:sqref>modified!$C$12:$C$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8187,11 +8187,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'AÑO MODIFICACIÓN'!$F$12:$F$16</c15:sqref>
+                    <c15:sqref>modified!$F$12:$F$16</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'AÑO MODIFICACIÓN'!$F$12:$F$15</c:f>
+              <c:f>modified!$F$12:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8215,11 +8215,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'AÑO MODIFICACIÓN'!$H$12:$H$16</c15:sqref>
+                    <c15:sqref>modified!$H$12:$H$16</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'AÑO MODIFICACIÓN'!$H$12:$H$15</c:f>
+              <c:f>modified!$H$12:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8279,10 +8279,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>'AÑO MODIFICACIÓN'!$F$12:$F$16</c15:sqref>
+                          <c15:sqref>modified!$F$12:$F$16</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO MODIFICACIÓN'!$F$12:$F$15</c15:sqref>
+                          <c15:sqref>modified!$F$12:$F$15</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8309,10 +8309,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>'AÑO MODIFICACIÓN'!$G$12:$G$16</c15:sqref>
+                          <c15:sqref>modified!$G$12:$G$16</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO MODIFICACIÓN'!$G$12:$G$15</c15:sqref>
+                          <c15:sqref>modified!$G$12:$G$15</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8665,7 +8665,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AÑO MODIFICACIÓN'!$B$67:$B$71</c:f>
+              <c:f>modified!$B$67:$B$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8689,7 +8689,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AÑO MODIFICACIÓN'!$D$67:$D$71</c:f>
+              <c:f>modified!$D$67:$D$71</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8752,7 +8752,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO MODIFICACIÓN'!$B$67:$B$71</c15:sqref>
+                          <c15:sqref>modified!$B$67:$B$71</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8782,7 +8782,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO MODIFICACIÓN'!$C$67:$C$71</c15:sqref>
+                          <c15:sqref>modified!$C$67:$C$71</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9146,7 +9146,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AÑO VALIDEZ'!$B$12:$B$15</c:f>
+              <c:f>valid_from!$B$12:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -9167,7 +9167,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AÑO VALIDEZ'!$D$12:$D$15</c:f>
+              <c:f>valid_from!$D$12:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -9227,7 +9227,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO VALIDEZ'!$B$12:$B$15</c15:sqref>
+                          <c15:sqref>valid_from!$B$12:$B$15</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9254,7 +9254,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO VALIDEZ'!$C$12:$C$15</c15:sqref>
+                          <c15:sqref>valid_from!$C$12:$C$15</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9617,7 +9617,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AÑO VALIDEZ'!$F$12:$F$15</c:f>
+              <c:f>valid_from!$F$12:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -9638,7 +9638,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AÑO VALIDEZ'!$H$12:$H$15</c:f>
+              <c:f>valid_from!$H$12:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -9698,7 +9698,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO VALIDEZ'!$F$12:$F$15</c15:sqref>
+                          <c15:sqref>valid_from!$F$12:$F$15</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9725,7 +9725,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO VALIDEZ'!$G$12:$G$15</c15:sqref>
+                          <c15:sqref>valid_from!$G$12:$G$15</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -10088,7 +10088,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AÑO VALIDEZ'!$B$66:$B$69</c:f>
+              <c:f>valid_from!$B$66:$B$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10109,7 +10109,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AÑO VALIDEZ'!$D$66:$D$69</c:f>
+              <c:f>valid_from!$D$66:$D$69</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10169,7 +10169,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO VALIDEZ'!$B$66:$B$69</c15:sqref>
+                          <c15:sqref>valid_from!$B$66:$B$69</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -10196,7 +10196,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO VALIDEZ'!$C$66:$C$69</c15:sqref>
+                          <c15:sqref>valid_from!$C$66:$C$69</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -24551,7 +24551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065096E5-BC22-4169-81F1-D5242474ED3C}">
   <dimension ref="B2:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -26009,8 +26009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38195FD5-B4DD-4CC1-BFFE-A57468C885D2}">
   <dimension ref="B2:I98"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
